--- a/2_cluster/_out/output/kmeans_cluster.xlsx
+++ b/2_cluster/_out/output/kmeans_cluster.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>complete_hierarquico</t>
+          <t>cluster.k3.cluster</t>
         </is>
       </c>
     </row>
@@ -382,7 +382,7 @@
         <v>-858.2204872828719</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         <v>-1429.69812264532</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         <v>-946.7921967722016</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>-800.9522001390468</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +426,7 @@
         <v>-970.8363585731509</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>-608.9721237050995</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +448,7 @@
         <v>-715.9647786325629</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -470,7 +470,7 @@
         <v>-6587.216087550996</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -481,7 +481,7 @@
         <v>-5784.402751266046</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -503,7 +503,7 @@
         <v>-6213.680373446971</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>-5519.050124148751</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>-670.1750006258769</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -547,7 +547,7 @@
         <v>-5775.133999702598</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -558,7 +558,7 @@
         <v>-1207.257388420683</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -591,7 +591,7 @@
         <v>-1496.448312149509</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -602,7 +602,7 @@
         <v>-1472.546135831108</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>-687.680040032788</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>-773.4466696361803</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>-649.5178545032301</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>-868.015121390196</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -657,7 +657,7 @@
         <v>-1053.760814301206</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -668,7 +668,7 @@
         <v>-1765.923716489944</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -679,7 +679,7 @@
         <v>-985.3543828196873</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -690,7 +690,7 @@
         <v>-847.3497382161406</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -701,7 +701,7 @@
         <v>-809.760949410125</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -712,7 +712,7 @@
         <v>-772.756953477763</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -723,7 +723,7 @@
         <v>-1209.931215025978</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -734,7 +734,7 @@
         <v>-1264.596876448989</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -745,7 +745,7 @@
         <v>-1759.383028326152</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         <v>-1106.712423192897</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -789,7 +789,7 @@
         <v>-1134.11677697494</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -811,7 +811,7 @@
         <v>-1054.573137054719</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -822,7 +822,7 @@
         <v>-907.2245928596693</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>-988.1071893471927</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -899,7 +899,7 @@
         <v>-1201.766862026467</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -910,7 +910,7 @@
         <v>-1117.915252750252</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -921,7 +921,7 @@
         <v>-1142.171337262079</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -932,7 +932,7 @@
         <v>-682.6332459812126</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -943,7 +943,7 @@
         <v>-1196.243430049055</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -954,7 +954,7 @@
         <v>-1220.207482839816</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1020,7 +1020,7 @@
         <v>-1057.599837902805</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1031,7 +1031,7 @@
         <v>-1473.060975878673</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1042,7 +1042,7 @@
         <v>-856.1792327583562</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1053,7 +1053,7 @@
         <v>-804.6388158765624</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1064,7 +1064,7 @@
         <v>-1354.225994139863</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         <v>-1215.689296312065</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         <v>-930.0475974213468</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         <v>-941.809712428886</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1108,7 +1108,7 @@
         <v>-866.0567133211591</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/2_cluster/_out/output/kmeans_cluster.xlsx
+++ b/2_cluster/_out/output/kmeans_cluster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,13 +9,39 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="7">
+  <si>
+    <t>Fator1</t>
+  </si>
+  <si>
+    <t>Fator2</t>
+  </si>
+  <si>
+    <t>Comp. 1</t>
+  </si>
+  <si>
+    <t>Comp. 1_cat</t>
+  </si>
+  <si>
+    <t>(-2.1, -3.0]</t>
+  </si>
+  <si>
+    <t>(-0.1, -1.0]</t>
+  </si>
+  <si>
+    <t>(-1.1, -2.0]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +89,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,306 +383,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fator1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fator2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cluster.k3.cluster</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>313.8842343496989</v>
+        <v>313.88423434969889</v>
       </c>
       <c r="B2">
-        <v>-858.2204872828719</v>
+        <v>-858.22048728287189</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>529.8424792176227</v>
+        <v>529.84247921762267</v>
       </c>
       <c r="B3">
-        <v>-1429.69812264532</v>
+        <v>-1429.6981226453199</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>351.547513139874</v>
+        <v>351.54751313987401</v>
       </c>
       <c r="B4">
-        <v>-946.7921967722016</v>
+        <v>-946.79219677220158</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>292.5038748134342</v>
+        <v>292.50387481343421</v>
       </c>
       <c r="B5">
-        <v>-800.9522001390468</v>
+        <v>-800.95220013904679</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>364.377586266901</v>
+        <v>364.37758626690101</v>
       </c>
       <c r="B6">
-        <v>-970.8363585731509</v>
+        <v>-970.83635857315085</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>217.1940584852148</v>
+        <v>217.19405848521481</v>
       </c>
       <c r="B7">
-        <v>-608.9721237050995</v>
+        <v>-608.97212370509953</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>259.1368579778883</v>
+        <v>259.13685797788833</v>
       </c>
       <c r="B8">
-        <v>-715.9647786325629</v>
+        <v>-715.96477863256291</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>934.9183148562</v>
+        <v>934.91831485620003</v>
       </c>
       <c r="B9">
-        <v>-2544.744620841058</v>
+        <v>-2544.7446208410579</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2378.583959228477</v>
+        <v>2378.5839592284769</v>
       </c>
       <c r="B10">
-        <v>-6587.216087550996</v>
+        <v>-6587.2160875509962</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2093.114154736692</v>
+        <v>2093.1141547366919</v>
       </c>
       <c r="B11">
-        <v>-5784.402751266046</v>
+        <v>-5784.4027512660459</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1547.301191352855</v>
+        <v>1547.3011913528551</v>
       </c>
       <c r="B12">
-        <v>-4252.99685864657</v>
+        <v>-4252.9968586465702</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2244.703548297976</v>
+        <v>2244.7035482979759</v>
       </c>
       <c r="B13">
-        <v>-6213.680373446971</v>
+        <v>-6213.6803734469713</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2000.558532977104</v>
+        <v>2000.5585329771041</v>
       </c>
       <c r="B14">
-        <v>-5519.050124148751</v>
+        <v>-5519.0501241487509</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>228.6521545488911</v>
       </c>
       <c r="B15">
-        <v>-670.1750006258769</v>
+        <v>-670.17500062587692</v>
       </c>
       <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1093.762203940986</v>
       </c>
       <c r="B16">
-        <v>-3028.781432051538</v>
+        <v>-3028.7814320515381</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2087.961332145319</v>
+        <v>2087.9613321453189</v>
       </c>
       <c r="B17">
         <v>-5775.133999702598</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>445.1746734156351</v>
+        <v>445.17467341563508</v>
       </c>
       <c r="B18">
-        <v>-1207.257388420683</v>
+        <v>-1207.2573884206829</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>808.5072561025938</v>
+        <v>808.50725610259383</v>
       </c>
       <c r="B19">
         <v>-2201.867316393641</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1142.433897368055</v>
+        <v>1142.4338973680551</v>
       </c>
       <c r="B20">
-        <v>-3134.666678605999</v>
+        <v>-3134.6666786059991</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>555.2757940555829</v>
+        <v>555.27579405558288</v>
       </c>
       <c r="B21">
-        <v>-1496.448312149509</v>
+        <v>-1496.4483121495091</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>543.3393356206256</v>
+        <v>543.33933562062555</v>
       </c>
       <c r="B22">
-        <v>-1472.546135831108</v>
+        <v>-1472.5461358311079</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>243.0664052572186</v>
+        <v>243.06640525721861</v>
       </c>
       <c r="B23">
-        <v>-687.680040032788</v>
+        <v>-687.68004003278804</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>278.5209613809262</v>
+        <v>278.52096138092622</v>
       </c>
       <c r="B24">
-        <v>-773.4466696361803</v>
+        <v>-773.44666963618033</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>225.6170880577043</v>
+        <v>225.61708805770431</v>
       </c>
       <c r="B25">
-        <v>-649.5178545032301</v>
+        <v>-649.51785450323007</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>313.6621112674291</v>
+        <v>313.66211126742911</v>
       </c>
       <c r="B26">
-        <v>-868.015121390196</v>
+        <v>-868.01512139019599</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>384.4952937781639</v>
       </c>
@@ -657,76 +768,97 @@
         <v>-1053.760814301206</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>651.4221705916119</v>
+        <v>651.42217059161192</v>
       </c>
       <c r="B28">
-        <v>-1765.923716489944</v>
+        <v>-1765.9237164899439</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>363.8983347898317</v>
+        <v>363.89833478983172</v>
       </c>
       <c r="B29">
-        <v>-985.3543828196873</v>
+        <v>-985.35438281968732</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>312.8437527346312</v>
+        <v>312.84375273463121</v>
       </c>
       <c r="B30">
-        <v>-847.3497382161406</v>
+        <v>-847.34973821614062</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>289.0928637578015</v>
+        <v>289.09286375780152</v>
       </c>
       <c r="B31">
-        <v>-809.760949410125</v>
+        <v>-809.76094941012502</v>
       </c>
       <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>277.9930086671204</v>
+        <v>277.99300866712042</v>
       </c>
       <c r="B32">
-        <v>-772.756953477763</v>
+        <v>-772.75695347776298</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>446.1120147487198</v>
+        <v>446.11201474871979</v>
       </c>
       <c r="B33">
         <v>-1209.931215025978</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>466.7894444987503</v>
       </c>
@@ -734,54 +866,69 @@
         <v>-1264.596876448989</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>647.5696187531931</v>
+        <v>647.56961875319314</v>
       </c>
       <c r="B35">
         <v>-1759.383028326152</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>952.8657786883941</v>
+        <v>952.86577868839413</v>
       </c>
       <c r="B36">
-        <v>-2608.668599692119</v>
+        <v>-2608.6685996921192</v>
       </c>
       <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>984.4334067692498</v>
+        <v>984.43340676924981</v>
       </c>
       <c r="B37">
-        <v>-2687.984477657819</v>
+        <v>-2687.9844776578188</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>405.9155228951421</v>
+        <v>405.91552289514209</v>
       </c>
       <c r="B38">
-        <v>-1106.712423192897</v>
+        <v>-1106.7124231928969</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>419.2940160426603</v>
       </c>
@@ -789,54 +936,69 @@
         <v>-1134.11677697494</v>
       </c>
       <c r="C39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>723.1814733033375</v>
       </c>
       <c r="B40">
-        <v>-1964.312583106618</v>
+        <v>-1964.3125831066179</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>390.2597888865395</v>
+        <v>390.25978888653952</v>
       </c>
       <c r="B41">
-        <v>-1054.573137054719</v>
+        <v>-1054.5731370547189</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>336.6409839688446</v>
+        <v>336.64098396884458</v>
       </c>
       <c r="B42">
-        <v>-907.2245928596693</v>
+        <v>-907.22459285966931</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>365.6000740830536</v>
+        <v>365.60007408305358</v>
       </c>
       <c r="B43">
-        <v>-988.1071893471927</v>
+        <v>-988.10718934719273</v>
       </c>
       <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>827.8206740676427</v>
       </c>
@@ -844,271 +1006,346 @@
         <v>-2258.330694439001</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>782.6115736002965</v>
+        <v>782.61157360029654</v>
       </c>
       <c r="B45">
-        <v>-2130.273564033998</v>
+        <v>-2130.2735640339979</v>
       </c>
       <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>713.2187483994687</v>
+        <v>713.21874839946872</v>
       </c>
       <c r="B46">
-        <v>-1935.919470400973</v>
+        <v>-1935.9194704009731</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1084.161046854188</v>
       </c>
       <c r="B47">
-        <v>-2960.605838417878</v>
+        <v>-2960.6058384178782</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1440.574426431282</v>
+        <v>1440.5744264312821</v>
       </c>
       <c r="B48">
-        <v>-3958.015633150378</v>
+        <v>-3958.0156331503781</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>431.6139743983767</v>
+        <v>431.61397439837668</v>
       </c>
       <c r="B49">
-        <v>-1201.766862026467</v>
+        <v>-1201.7668620264669</v>
       </c>
       <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>414.4812777479339</v>
+        <v>414.48127774793392</v>
       </c>
       <c r="B50">
         <v>-1117.915252750252</v>
       </c>
       <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>-3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>419.0348904186664</v>
+        <v>419.03489041866641</v>
       </c>
       <c r="B51">
-        <v>-1142.171337262079</v>
+        <v>-1142.1713372620791</v>
       </c>
       <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>246.6862370420981</v>
       </c>
       <c r="B52">
-        <v>-682.6332459812126</v>
+        <v>-682.63324598121255</v>
       </c>
       <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>-3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>438.2877227546871</v>
+        <v>438.28772275468708</v>
       </c>
       <c r="B53">
         <v>-1196.243430049055</v>
       </c>
       <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>-3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>450.9559279431362</v>
       </c>
       <c r="B54">
-        <v>-1220.207482839816</v>
+        <v>-1220.2074828398161</v>
       </c>
       <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1403.594214617699</v>
       </c>
       <c r="B55">
-        <v>-3861.117193794585</v>
+        <v>-3861.1171937945851</v>
       </c>
       <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>802.2892359646597</v>
+        <v>802.28923596465972</v>
       </c>
       <c r="B56">
-        <v>-2191.408453341023</v>
+        <v>-2191.4084533410228</v>
       </c>
       <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1027.394380783323</v>
       </c>
       <c r="B57">
-        <v>-2810.03011176243</v>
+        <v>-2810.0301117624299</v>
       </c>
       <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>-2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>983.6759439036052</v>
+        <v>983.67594390360523</v>
       </c>
       <c r="B58">
-        <v>-2701.203703262427</v>
+        <v>-2701.2037032624271</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>859.3521088091858</v>
+        <v>859.35210880918578</v>
       </c>
       <c r="B59">
-        <v>-2348.025936366167</v>
+        <v>-2348.0259363661671</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>386.2122783242127</v>
+        <v>386.21227832421272</v>
       </c>
       <c r="B60">
-        <v>-1057.599837902805</v>
+        <v>-1057.5998379028049</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>-3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>543.2903573811402</v>
+        <v>543.29035738114021</v>
       </c>
       <c r="B61">
-        <v>-1473.060975878673</v>
+        <v>-1473.0609758786729</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>-3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>316.8128182272926</v>
+        <v>316.81281822729261</v>
       </c>
       <c r="B62">
-        <v>-856.1792327583562</v>
+        <v>-856.17923275835619</v>
       </c>
       <c r="C62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>-3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>294.5217800142524</v>
+        <v>294.52178001425239</v>
       </c>
       <c r="B63">
-        <v>-804.6388158765624</v>
+        <v>-804.63881587656238</v>
       </c>
       <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>-3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>499.5079251943023</v>
+        <v>499.50792519430229</v>
       </c>
       <c r="B64">
-        <v>-1354.225994139863</v>
+        <v>-1354.2259941398629</v>
       </c>
       <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>-3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>452.5933573218567</v>
+        <v>452.59335732185667</v>
       </c>
       <c r="B65">
-        <v>-1215.689296312065</v>
+        <v>-1215.6892963120649</v>
       </c>
       <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>-3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>341.9967488438459</v>
+        <v>341.99674884384592</v>
       </c>
       <c r="B66">
-        <v>-930.0475974213468</v>
+        <v>-930.04759742134684</v>
       </c>
       <c r="C66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>-3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>343.105602494146</v>
+        <v>343.10560249414601</v>
       </c>
       <c r="B67">
-        <v>-941.809712428886</v>
+        <v>-941.80971242888597</v>
       </c>
       <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>315.2731219459481</v>
+        <v>315.27312194594811</v>
       </c>
       <c r="B68">
-        <v>-866.0567133211591</v>
+        <v>-866.05671332115912</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>-3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
